--- a/public/ID.xlsx
+++ b/public/ID.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="market" sheetId="1" state="visible" r:id="rId3"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
   <si>
     <t xml:space="preserve">asset_name</t>
   </si>
@@ -51,12 +51,6 @@
   </si>
   <si>
     <t xml:space="preserve">FORD TERRITORY TRY-TT2 2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">owner_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شركة إنماء مركبات الجزيرة للإستثمار</t>
   </si>
 </sst>
 </file>
@@ -526,7 +520,7 @@
   </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H20" activeCellId="0" sqref="H20"/>
     </sheetView>
   </sheetViews>
@@ -537,7 +531,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="10.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="10.16"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -551,6 +545,112 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="6" t="n">
+        <v>40</v>
+      </c>
+      <c r="C2" s="7" t="n">
+        <v>128600</v>
+      </c>
+      <c r="D2" s="8" t="n">
+        <v>45664</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="6" t="n">
+        <v>38</v>
+      </c>
+      <c r="C3" s="10" t="n">
+        <v>108695</v>
+      </c>
+      <c r="D3" s="8" t="n">
+        <v>45664</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B2:B3" type="list">
+      <formula1>#ref!</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F2:F3" type="list">
+      <formula1>#ref!</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E2:E3" type="list">
+      <formula1>#ref!</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L9" activeCellId="0" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.50390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="30.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="27.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.99"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
@@ -623,119 +723,4 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.50390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="30.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="27.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.99"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="6" t="n">
-        <v>40</v>
-      </c>
-      <c r="C2" s="7" t="n">
-        <v>128600</v>
-      </c>
-      <c r="D2" s="8" t="n">
-        <v>45664</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="6" t="n">
-        <v>38</v>
-      </c>
-      <c r="C3" s="10" t="n">
-        <v>108695</v>
-      </c>
-      <c r="D3" s="8" t="n">
-        <v>45664</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="3">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B2:B3" type="list">
-      <formula1>#ref!</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F2:F3" type="list">
-      <formula1>#ref!</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G3" type="list">
-      <formula1>#ref!</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
 </file>
--- a/public/ID.xlsx
+++ b/public/ID.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="market" sheetId="1" state="visible" r:id="rId3"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
   <si>
     <t xml:space="preserve">asset_name</t>
   </si>
@@ -35,6 +35,9 @@
     <t xml:space="preserve">inspection_date</t>
   </si>
   <si>
+    <t xml:space="preserve">owner_name</t>
+  </si>
+  <si>
     <t xml:space="preserve">region</t>
   </si>
   <si>
@@ -42,6 +45,9 @@
   </si>
   <si>
     <t xml:space="preserve">FORD TAURUS TRS-TR1-NS 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شركة إنماء مركبات الجزيرة للإستثمار</t>
   </si>
   <si>
     <t xml:space="preserve">منطقة الرياض</t>
@@ -105,7 +111,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -518,10 +523,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H20" activeCellId="0" sqref="H20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.50390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -530,8 +535,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="10.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="30.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -553,10 +558,13 @@
       <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="6" t="n">
         <v>40</v>
@@ -568,15 +576,18 @@
         <v>45664</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" s="6" t="n">
         <v>38</v>
@@ -588,10 +599,13 @@
         <v>45664</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -604,7 +618,7 @@
       <formula1>#ref!</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E2:E3" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G3" type="list">
       <formula1>#ref!</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -624,10 +638,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L9" activeCellId="0" sqref="L9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.50390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -659,10 +673,13 @@
       <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="6" t="n">
         <v>40</v>
@@ -674,15 +691,18 @@
         <v>45664</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" s="6" t="n">
         <v>38</v>
@@ -694,10 +714,13 @@
         <v>45664</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -706,11 +729,11 @@
       <formula1>#ref!</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E2:E3" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F2:F3" type="list">
       <formula1>#ref!</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F2:F3" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G3" type="list">
       <formula1>#ref!</formula1>
       <formula2>0</formula2>
     </dataValidation>
